--- a/Lab1/src/Report_graph.xlsx
+++ b/Lab1/src/Report_graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timlee/Desktop/SMU/2019-fall-term/3353/CS3353-Timothy-Lee/Lab1/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A671D72B-2A4D-024A-9888-44433DCB4784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552784EC-04FA-E64E-A584-D5D765FE4DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{FA36196C-DB7C-7F4C-8419-3F27C8A8C062}"/>
   </bookViews>
@@ -4931,8 +4931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC530FE5-3ED0-614C-AF10-98F31F58CCAC}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D52" sqref="A48:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
